--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>df_name</t>
   </si>
@@ -22,9 +22,6 @@
     <t>sheet_name</t>
   </si>
   <si>
-    <t>project</t>
-  </si>
-  <si>
     <t>columns</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
     <t>df_em</t>
   </si>
   <si>
+    <t>df_sg</t>
+  </si>
+  <si>
     <t>AnalíticoNC</t>
   </si>
   <si>
@@ -64,10 +64,7 @@
     <t>Emendas2021_resumo</t>
   </si>
   <si>
-    <t>financeiro</t>
-  </si>
-  <si>
-    <t>all</t>
+    <t>Relatório_SISGESAC</t>
   </si>
   <si>
     <t>['proponente', 'nota_de_credito', 'programa', 'mes', 'valor_faturado', 'valor_economizado', 'valor_utilizado', 'saldo_no_periodo', 'relatorio']</t>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>['processo', 'emenda', 'valor', 'pontos_livre_(18_meses', 'pontos_gesac', 'pontos_indicados', 'pontos_analisados', 'pontos_aprovados', 'encaminhamento', 'data_aspar_informada', 'data_cadastrado', 'responsavel', 'pendencia_28/12']</t>
+  </si>
+  <si>
+    <t>['cdgesac', 'nrpid', 'situacao', 'sgunidadefederacao', 'nomunicipio', 'cdmunicipioibge', 'noestabelecimento', 'cdinep', 'sginstituicao', 'nosolicitante', 'nocargosolicitante', 'dslogradouro', 'nrendereco', 'dsbairro', 'nrcep', 'dscomplemento', 'icareaurbana', 'idlote', 'nrvelocidadedownload', 'vlunitario', 'dslatitude', 'dslongitude', 'cdtipotecnologia', 'instalacao_cdgesac', 'instalacao_dstiposolicitacao', 'instalacao_solicitacao', 'instalacao_dtsolicitacao', 'instalacao_dtexecucaosolicitacao', 'instalacao_dtinstalacao', 'instalacao_situacao', 'instalacao_dtsituacaosolicitacao', 'instalacao_dstiposituacaosolicitacao', 'instalacao_subcomissao', 'remanejamento_cdgesac', 'remanejamento_dstiposolicitacao', 'remanejamento_solicitacao', 'remanejamento_dtsolicitacao', 'remanejamento_dtexecucaosolicitacao', 'remanejamento_dtinstalaca', 'remanejamento_situacao', 'remanejamento_dtsituacaosolicitacao', 'remanejamento_dstiposituacaosolicitacao', 'remanejamento_subcomissao', 'desativacao_cdgesac', 'desativacao_dstiposolicitacao', 'desativacao_solicitacao', 'desativacao_dtsolicitacao', 'desativacao_dtexecucaosolicitacao', 'desativacao_dtinstalaca', 'desativacao_situacao', 'desativacao_dtsituacaosolicitacao', 'desativacao_dstiposituacaosolicitacao', 'desativacao_subcomissao', 'nrcontrato', 'eecontatobeneficiario', 'nrtelefonebeneficiario', 'dsjustificativa', 'nocontatobeneficiario', 'notipologiabeneficiario']</t>
   </si>
 </sst>
 </file>
@@ -443,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,109 +459,102 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>df_name</t>
   </si>
@@ -22,6 +22,9 @@
     <t>sheet_name</t>
   </si>
   <si>
+    <t>xlsx_file</t>
+  </si>
+  <si>
     <t>columns</t>
   </si>
   <si>
@@ -61,10 +64,25 @@
     <t>ControleGeral</t>
   </si>
   <si>
-    <t>Emendas2021_resumo</t>
-  </si>
-  <si>
-    <t>Relatório_SISGESAC</t>
+    <t>Emendas_resumo</t>
+  </si>
+  <si>
+    <t>Relatorio_SISGESAC</t>
+  </si>
+  <si>
+    <t>Controle de NC 2022.xlsx</t>
+  </si>
+  <si>
+    <t>Proponentes.xlsx</t>
+  </si>
+  <si>
+    <t>Controle de Empenhos e NC 2022.xlsx</t>
+  </si>
+  <si>
+    <t>Emendas2021_resumo.xlsx</t>
+  </si>
+  <si>
+    <t>Relatorio_SISGESAC 1-02-2022.xls</t>
   </si>
   <si>
     <t>['proponente', 'nota_de_credito', 'programa', 'mes', 'valor_faturado', 'valor_economizado', 'valor_utilizado', 'saldo_no_periodo', 'relatorio']</t>
@@ -443,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,103 +477,127 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -94,7 +94,7 @@
     <t>['mes', 'indice_de_correcao', 'taxa_selic', 'observacao']</t>
   </si>
   <si>
-    <t>['prop_pk1', 'uf', 'partido', 'orgao', 'prop_1', 'prop_2', 'prop_3', 'prop_4', 'prop_pk2']</t>
+    <t>['unnamed:_0', 'prop_pk1', 'uf', 'partido', 'orgao', 'prop_1', 'prop_2', 'prop_3', 'prop_4', 'prop_pk2']</t>
   </si>
   <si>
     <t>['processo', 'proponente', 'contrato', 'nota_de_empenho', 'valor_empenhado', 'valor_pago', 'saldo_do_empenho', 'consumo_%', 'janeiro', 'fevereiro', 'marco', 'abril', 'maio', 'junho', 'julho', 'agosto', 'setembro', 'outubro', 'novembro', 'dezembro', 'tipo']</t>

--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>df_name</t>
   </si>
@@ -46,6 +46,12 @@
     <t>df_em</t>
   </si>
   <si>
+    <t>df_ei</t>
+  </si>
+  <si>
+    <t>df_estados</t>
+  </si>
+  <si>
     <t>df_sg</t>
   </si>
   <si>
@@ -67,6 +73,12 @@
     <t>Emendas_resumo</t>
   </si>
   <si>
+    <t>Emendas Individuais</t>
+  </si>
+  <si>
+    <t>estados</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC</t>
   </si>
   <si>
@@ -82,6 +94,12 @@
     <t>Emendas2021_resumo.xlsx</t>
   </si>
   <si>
+    <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
+  </si>
+  <si>
+    <t>estados.xlsx</t>
+  </si>
+  <si>
     <t>Relatorio_SISGESAC 1-02-2022.xls</t>
   </si>
   <si>
@@ -101,6 +119,12 @@
   </si>
   <si>
     <t>['processo', 'emenda', 'valor', 'pontos_livre_(18_meses', 'pontos_gesac', 'pontos_indicados', 'pontos_analisados', 'pontos_aprovados', 'encaminhamento', 'data_aspar_informada', 'data_cadastrado', 'responsavel', 'pendencia_28/12']</t>
+  </si>
+  <si>
+    <t>['unnamed:_0', 'unnamed:_1', 'unnamed:_2', 'unnamed:_3', 'unnamed:_4', 'unnamed:_5', 'unnamed:_6', 'unnamed:_7', 'unnamed:_8', 'unnamed:_9', 'unnamed:_10', 'unnamed:_11', 'unnamed:_12', 'unnamed:_13', 'unnamed:_14', 'unnamed:_15', 'unnamed:_16', 'unnamed:_17', 'unnamed:_18', '0.9283357777777778', '215l_4', '0.9283357495906134', '215l_3', '0.9283363157894737', '20uq_4', '0.9283356845856846', '20v6_3']</t>
+  </si>
+  <si>
+    <t>['cod', 'nome', 'sigla']</t>
   </si>
   <si>
     <t>['cdgesac', 'nrpid', 'situacao', 'sgunidadefederacao', 'nomunicipio', 'cdmunicipioibge', 'noestabelecimento', 'cdinep', 'sginstituicao', 'nosolicitante', 'nocargosolicitante', 'dslogradouro', 'nrendereco', 'dsbairro', 'nrcep', 'dscomplemento', 'icareaurbana', 'idlote', 'nrvelocidadedownload', 'vlunitario', 'dslatitude', 'dslongitude', 'cdtipotecnologia', 'instalacao_cdgesac', 'instalacao_dstiposolicitacao', 'instalacao_solicitacao', 'instalacao_dtsolicitacao', 'instalacao_dtexecucaosolicitacao', 'instalacao_dtinstalacao', 'instalacao_situacao', 'instalacao_dtsituacaosolicitacao', 'instalacao_dstiposituacaosolicitacao', 'instalacao_subcomissao', 'remanejamento_cdgesac', 'remanejamento_dstiposolicitacao', 'remanejamento_solicitacao', 'remanejamento_dtsolicitacao', 'remanejamento_dtexecucaosolicitacao', 'remanejamento_dtinstalaca', 'remanejamento_situacao', 'remanejamento_dtsituacaosolicitacao', 'remanejamento_dstiposituacaosolicitacao', 'remanejamento_subcomissao', 'desativacao_cdgesac', 'desativacao_dstiposolicitacao', 'desativacao_solicitacao', 'desativacao_dtsolicitacao', 'desativacao_dtexecucaosolicitacao', 'desativacao_dtinstalaca', 'desativacao_situacao', 'desativacao_dtsituacaosolicitacao', 'desativacao_dstiposituacaosolicitacao', 'desativacao_subcomissao', 'nrcontrato', 'eecontatobeneficiario', 'nrtelefonebeneficiario', 'dsjustificativa', 'nocontatobeneficiario', 'notipologiabeneficiario']</t>
@@ -461,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -506,13 +530,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -523,13 +547,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -540,13 +564,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -557,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -574,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -591,13 +615,47 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>df_name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>df_em</t>
   </si>
   <si>
-    <t>df_ei</t>
-  </si>
-  <si>
     <t>df_estados</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Emendas_resumo</t>
   </si>
   <si>
-    <t>Emendas Individuais</t>
-  </si>
-  <si>
     <t>estados</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>Emendas2021_resumo.xlsx</t>
   </si>
   <si>
-    <t>Orçamentário MCOM 2021 16-11-21 setel.xlsx</t>
-  </si>
-  <si>
     <t>estados.xlsx</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
   </si>
   <si>
     <t>['processo', 'emenda', 'valor', 'pontos_livre_(18_meses', 'pontos_gesac', 'pontos_indicados', 'pontos_analisados', 'pontos_aprovados', 'encaminhamento', 'data_aspar_informada', 'data_cadastrado', 'responsavel', 'pendencia_28/12']</t>
-  </si>
-  <si>
-    <t>['unnamed:_0', 'unnamed:_1', 'unnamed:_2', 'unnamed:_3', 'unnamed:_4', 'unnamed:_5', 'unnamed:_6', 'unnamed:_7', 'unnamed:_8', 'unnamed:_9', 'unnamed:_10', 'unnamed:_11', 'unnamed:_12', 'unnamed:_13', 'unnamed:_14', 'unnamed:_15', 'unnamed:_16', 'unnamed:_17', 'unnamed:_18', '0.9283357777777778', '215l_4', '0.9283357495906134', '215l_3', '0.9283363157894737', '20uq_4', '0.9283356845856846', '20v6_3']</t>
   </si>
   <si>
     <t>['cod', 'nome', 'sigla']</t>
@@ -485,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,13 +501,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -530,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -547,13 +535,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -564,13 +552,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -581,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -598,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -615,13 +603,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -632,30 +620,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -103,7 +103,7 @@
     <t>['mes', 'indice_de_correcao', 'taxa_selic', 'observacao']</t>
   </si>
   <si>
-    <t>['unnamed:_0', 'prop_pk1', 'uf', 'partido', 'orgao', 'prop_1', 'prop_2', 'prop_3', 'prop_4', 'prop_pk2']</t>
+    <t>['prop_pk1', 'prop_1', 'prop_2', 'prop_3', 'prop_4', 'prop_pk2', 'uf', 'partido', 'orgao']</t>
   </si>
   <si>
     <t>['processo', 'proponente', 'contrato', 'nota_de_empenho', 'valor_empenhado', 'valor_pago', 'saldo_do_empenho', 'consumo_%', 'janeiro', 'fevereiro', 'marco', 'abril', 'maio', 'junho', 'julho', 'agosto', 'setembro', 'outubro', 'novembro', 'dezembro', 'tipo']</t>

--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -61,7 +61,7 @@
     <t>ÍndiceCorreção</t>
   </si>
   <si>
-    <t>Proponentes</t>
+    <t>Proponente</t>
   </si>
   <si>
     <t>ControleGeral</t>

--- a/Data_Dictionary/xlsx/df_sheets.xlsx
+++ b/Data_Dictionary/xlsx/df_sheets.xlsx
@@ -61,7 +61,7 @@
     <t>ÍndiceCorreção</t>
   </si>
   <si>
-    <t>Proponente</t>
+    <t>Proponentes</t>
   </si>
   <si>
     <t>ControleGeral</t>
